--- a/data/trans_dic/Q45B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,69</t>
+          <t>2,0; 5,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,05</t>
+          <t>1,98; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,11</t>
+          <t>0,24; 2,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,35</t>
+          <t>9,81; 17,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 19,21</t>
+          <t>10,63; 19,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,11</t>
+          <t>2,58; 7,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,6</t>
+          <t>5,88; 9,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,53</t>
+          <t>6,02; 10,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,68</t>
+          <t>1,5; 3,78</t>
         </is>
       </c>
     </row>
@@ -795,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,46</t>
+          <t>0,24; 2,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,06</t>
+          <t>1,25; 4,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,01; 23,3</t>
+          <t>14,89; 22,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 18,86</t>
+          <t>10,86; 19,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,4</t>
+          <t>2,61; 6,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,94</t>
+          <t>8,01; 12,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,95</t>
+          <t>5,82; 9,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,68</t>
+          <t>1,46; 3,67</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,01</t>
+          <t>1,22; 3,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,43</t>
+          <t>1,76; 4,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,99</t>
+          <t>0,21; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 17,11</t>
+          <t>7,26; 16,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,88</t>
+          <t>7,14; 15,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,7</t>
+          <t>3,31; 10,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,2</t>
+          <t>3,06; 5,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,76</t>
+          <t>3,58; 6,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,39</t>
+          <t>1,24; 3,45</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,6</t>
+          <t>1,06; 2,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,66</t>
+          <t>1,67; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,68</t>
+          <t>0,53; 1,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,63</t>
+          <t>6,35; 10,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,36</t>
+          <t>6,4; 10,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,82</t>
+          <t>4,34; 7,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,07</t>
+          <t>3,25; 5,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,88</t>
+          <t>3,91; 5,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,94</t>
+          <t>2,38; 3,92</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,41</t>
+          <t>0,86; 4,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,83</t>
+          <t>0,4; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,49</t>
+          <t>0,63; 2,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,97</t>
+          <t>3,05; 6,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,15</t>
+          <t>2,48; 5,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,72</t>
+          <t>1,35; 3,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,13</t>
+          <t>2,59; 5,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,67</t>
+          <t>1,78; 3,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,66</t>
+          <t>1,24; 2,67</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,22</t>
+          <t>0,33; 3,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,73</t>
+          <t>0,86; 4,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,93</t>
+          <t>0,34; 2,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,12</t>
+          <t>3,0; 5,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,96</t>
+          <t>3,4; 6,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,62</t>
+          <t>1,11; 2,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,47</t>
+          <t>2,57; 4,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,32</t>
+          <t>3,21; 5,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,46</t>
+          <t>1,02; 2,43</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,59</t>
+          <t>1,57; 2,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,09</t>
+          <t>2,02; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,3</t>
+          <t>0,65; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 8,84</t>
+          <t>6,94; 8,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,32</t>
+          <t>6,56; 8,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,2</t>
+          <t>2,99; 4,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 5,49</t>
+          <t>4,42; 5,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 5,54</t>
+          <t>4,47; 5,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,64</t>
+          <t>1,94; 2,65</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17376</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15822</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41176</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44685</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14661</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>58552</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60508</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18605</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9486; 28142</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8622; 27193</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1020; 9357</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30075; 54939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33328; 59777</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8969; 24951</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45927; 76490</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45115; 77929</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11663; 29344</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10305</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>69119</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>48352</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15515</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>72633</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>58657</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17467</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>892; 8921</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5228; 19076</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6822</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>55366; 84836</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36587; 64496</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9686; 25178</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59162; 91829</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43920; 75005</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10830; 27221</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12221</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17284</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18637</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27609</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10350</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30857</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44893</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6627; 20781</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11023; 27564</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1103; 10189</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12188; 28189</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18561; 39238</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5469; 16583</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21726; 42429</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31687; 59778</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8524; 23672</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21280</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29535</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10962</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>59316</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>63348</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48471</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>80596</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>92883</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59433</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13102; 30772</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19275; 43381</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6067; 21030</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45371; 73481</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48973; 80622</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35682; 63055</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>63509; 99092</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>75030; 114295</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46767; 77094</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7522</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7938</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26396</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27137</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16745</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33918</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>33415</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24683</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3024; 14947</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2059; 12442</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3934; 15742</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17373; 38710</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18761; 39024</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9905; 26849</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23788; 47803</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22548; 45798</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16819; 36138</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6077</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>49288</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>50942</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19015</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>53069</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>57019</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22065</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>998; 9186</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2294; 12692</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>959; 8034</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>37464; 65134</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37591; 66333</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11977; 29322</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>39756; 68353</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>44019; 75784</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13845; 33168</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>65695</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>85301</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31896</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>263932</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>262074</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>124757</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>329626</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>347374</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>156653</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51398; 85126</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>68840; 105742</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>21959; 44238</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>234426; 295277</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>231923; 293016</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>105326; 146727</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>293629; 366104</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>310293; 383771</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>133535; 182358</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/Q45B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
